--- a/estimativa_de_presença.xlsx
+++ b/estimativa_de_presença.xlsx
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="203">
+    <row r="8" spans="1:7" ht="58">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="217.5">
+    <row r="9" spans="1:7" ht="58">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="130.5">
+    <row r="10" spans="1:7" ht="58">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>

--- a/estimativa_de_presença.xlsx
+++ b/estimativa_de_presença.xlsx
@@ -15,6 +15,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Steven Ross</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steven Ross:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+estimativa beseada no n[umero de pessoas do evento anterior</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
@@ -172,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +238,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -851,6 +904,7 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
